--- a/数据整理/stocks/A股/上证主板/600399-ST抚钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600399-ST抚钢.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3872,7 +3873,6 @@
           <t>工银瑞信灵活配置混合B</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>73.66</t>
@@ -3888,6 +3888,74 @@
       </c>
       <c r="H43" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600399-ST抚钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600399-ST抚钢.xlsx
@@ -3917,12 +3917,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600399-ST抚钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600399-ST抚钢.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +463,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -503,36 +483,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>海富通股票混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7116</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.24</v>
       </c>
     </row>
     <row r="3">
@@ -541,1708 +499,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001158</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信新材料新能源行业股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0265</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501062</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0129</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010064</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>圆信永丰兴研灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>37.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>77.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9245</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001736</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圆信永丰优加生活股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>31.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8336</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002446</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>60.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7146</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007353</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新3年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>21.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6703</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008085</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4708</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001008</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4517</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>483003</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银精选平衡混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>17.48</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.14</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3758</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009025</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3707</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004958</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>圆信永丰优享生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>13.09</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3574</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
         <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2977</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004959</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>圆信永丰优悦生活混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2531</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001140</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>工银总回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.72</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2530</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>481006</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>工银红利混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2519</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009707</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.56</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2487</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001043</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>工银美丽城镇主题股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>84.70</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1802</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009651</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1568</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001719</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>工银瑞信国家战略主题股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1357</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009867</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>工银瑞信创新精选一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1090</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001428</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>工银瑞信灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>75.03</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1055</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>487016</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>工银瑞信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>75.03</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1055</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001718</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>工银瑞信物流产业股票</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1044</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008084</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0964</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009708</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>7.56</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0915</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001667</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>南方转型增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0894</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001721</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>工银瑞信新增益混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>29.79</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0858</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008245</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>圆信永丰致优混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0832</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007674</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>工银瑞信产业升级股票A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0563</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>010065</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>圆信永丰兴研灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>77.45</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0561</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>009024</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0557</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001716</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>工银新趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0547</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009652</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0520</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001997</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>工银新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0378</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>008246</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>圆信永丰致优混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>60.82</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0217</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>009868</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>工银瑞信创新精选一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>009634</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>鹏华安睿两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>20.77</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>007675</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>工银瑞信产业升级股票C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>006230</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>鹏华研究驱动混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>89.25</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>009635</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>鹏华安睿两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>20.77</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>005945</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>工银瑞信可转债优选债券A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>30.66</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>005946</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>工银瑞信可转债优选债券C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>30.66</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>011478</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>工银美丽城镇主题股票C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>84.70</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>011477</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>工银总回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>88.72</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3901,7 +2165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3912,17 +2176,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3932,14 +2216,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.24</v>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3948,14 +2254,1708 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0265</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9245</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7146</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6703</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4708</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4517</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3758</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3707</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2977</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>60.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>30.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
